--- a/aichan/558661011967661391_2021-08-14_11-30-03.xlsx
+++ b/aichan/558661011967661391_2021-08-14_11-30-03.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -549,10 +565,8 @@
           <t>5198106010</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-19 09:25:12</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44427.3925</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -616,10 +630,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:33:08</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44424.73134259259</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -695,10 +707,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:30:59</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44424.72984953703</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,10 +780,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:30:06</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44424.72923611111</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -849,10 +857,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:29:05</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44424.72853009259</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -928,10 +934,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:25:19</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44424.72591435185</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1003,10 +1007,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:23:46</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44424.72483796296</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1082,10 +1084,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:20:02</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44424.72224537037</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1157,10 +1157,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:17:48</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44424.72069444445</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1236,10 +1234,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:17:20</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44424.72037037037</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1311,10 +1307,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:16:23</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44424.71971064815</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1390,10 +1384,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:15:01</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44424.71876157408</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1465,10 +1457,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:12:08</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44424.71675925926</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1544,10 +1534,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:11:17</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44424.71616898148</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1623,10 +1611,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:10:30</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44424.715625</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1698,10 +1684,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:08:25</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44424.71417824074</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1773,10 +1757,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:07:51</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44424.71378472223</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1852,10 +1834,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:07:05</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44424.71325231482</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1927,10 +1907,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:06:15</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44424.71267361111</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2007,10 +1985,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:05:24</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44424.71208333333</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2086,10 +2062,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:03:00</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44424.71041666667</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2161,10 +2135,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:02:18</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44424.70993055555</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2236,10 +2208,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-16 17:00:09</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44424.7084375</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2315,10 +2285,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-16 16:59:16</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44424.70782407407</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2394,10 +2362,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-16 16:59:01</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44424.70765046297</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2469,10 +2435,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-16 16:58:08</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44424.70703703703</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2544,10 +2508,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-16 16:56:13</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44424.70570601852</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2623,10 +2585,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-16 16:55:47</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44424.70540509259</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2702,10 +2662,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-16 16:55:44</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44424.70537037037</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2777,10 +2735,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-16 16:54:22</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44424.70442129629</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2856,10 +2812,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-16 16:53:14</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44424.70363425926</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2931,10 +2885,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-16 16:47:39</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44424.69975694444</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3010,10 +2962,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-16 16:45:54</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44424.69854166666</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3089,10 +3039,8 @@
           <t>5174368503</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-16 16:40:12</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44424.69458333333</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3187,10 +3135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-15 16:11:46</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44423.67483796296</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3254,10 +3200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-15 00:36:23</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44423.0252662037</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
@@ -3317,10 +3261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-15 00:09:05</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44423.00630787037</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3388,10 +3330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-14 23:37:10</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44422.98414351852</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3451,10 +3391,8 @@
           <t>5159437466</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-14 23:00:15</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44422.95850694444</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3531,10 +3469,8 @@
           <t>5159437466</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:58:40</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44422.9574074074</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3606,10 +3542,8 @@
           <t>5159437466</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:51:42</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44422.95256944445</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3681,10 +3615,8 @@
           <t>5159437466</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:50:44</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44422.95189814815</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3756,10 +3688,8 @@
           <t>5159437466</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:47:15</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44422.94947916667</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3831,10 +3761,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:41:28</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44422.94546296296</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3898,10 +3826,8 @@
           <t>5159921555</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:23:51</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44422.93322916667</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3973,10 +3899,8 @@
           <t>5159437466</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:05:53</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44422.92075231481</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -4048,10 +3972,8 @@
           <t>5159437466</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-14 22:00:43</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44422.91716435185</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4123,10 +4045,8 @@
           <t>5159437466</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:48:18</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44422.90854166666</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4198,10 +4118,8 @@
           <t>5159437466</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:44:33</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44422.9059375</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4284,10 +4202,8 @@
           <t>5159437466</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:35:06</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44422.899375</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4359,10 +4275,8 @@
           <t>5159227171</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:14:16</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44422.88490740741</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4439,10 +4353,8 @@
           <t>5159216673</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-14 21:13:01</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44422.88403935185</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4519,10 +4431,8 @@
           <t>5156140025</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:47:50</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44422.86655092592</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4587,10 +4497,8 @@
           <t>5157365086</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:19:04</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44422.84657407407</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4662,10 +4570,8 @@
           <t>5157350984</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-14 20:10:34</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44422.8406712963</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4737,10 +4643,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:36:38</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44422.81710648148</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4808,10 +4712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:25:25</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44422.80931712963</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4875,10 +4777,8 @@
           <t>5158119233</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:15:52</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44422.80268518518</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4943,10 +4843,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:15:32</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44422.80245370371</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5016,10 +4914,8 @@
           <t>5158104945</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:14:44</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44422.80189814815</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5083,10 +4979,8 @@
           <t>5158092372</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:12:21</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44422.80024305556</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5150,10 +5044,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:08:50</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44422.79780092592</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5222,10 +5114,8 @@
           <t>5154384180</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:08:30</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44422.79756944445</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5289,10 +5179,8 @@
           <t>5157988677</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:02:14</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44422.7932175926</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5360,10 +5248,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-14 19:00:32</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44422.79203703703</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5431,10 +5317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:56:36</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44422.78930555555</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5510,10 +5394,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:54:56</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44422.78814814815</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5586,10 +5468,8 @@
           <t>5157926903</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:54:42</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44422.78798611111</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5657,10 +5537,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:53:02</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44422.78682870371</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5728,10 +5606,8 @@
           <t>5157500921</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:52:50</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44422.78668981481</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5803,10 +5679,8 @@
           <t>5156631354</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:43:51</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44422.78045138889</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5870,10 +5744,8 @@
           <t>5157776446</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:37:19</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44422.77591435185</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5941,10 +5813,8 @@
           <t>5157725358</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:32:09</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44422.77232638889</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6017,10 +5887,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:31:09</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44422.77163194444</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6088,10 +5956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:30:18</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44422.77104166667</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6159,10 +6025,8 @@
           <t>5154419380</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:28:40</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44422.7699074074</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6230,10 +6094,8 @@
           <t>5157668626</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:26:49</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44422.76862268519</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6301,10 +6163,8 @@
           <t>5157596317</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:18:22</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44422.76275462963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6376,10 +6236,8 @@
           <t>5157592004</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:17:49</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44422.76237268518</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6451,10 +6309,8 @@
           <t>5156589113</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:17:18</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44422.76201388889</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6530,10 +6386,8 @@
           <t>5157580503</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:16:32</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44422.76148148148</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6605,10 +6459,8 @@
           <t>5157569329</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:16:11</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44422.76123842593</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6684,10 +6536,8 @@
           <t>5157554457</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:14:40</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44422.76018518519</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6755,10 +6605,8 @@
           <t>5157499646</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:14:21</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44422.75996527778</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6830,10 +6678,8 @@
           <t>5157551126</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:13:40</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44422.75949074074</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6905,10 +6751,8 @@
           <t>5157500921</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:12:44</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44422.75884259259</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6976,10 +6820,8 @@
           <t>5157521490</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:10:36</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44422.75736111111</v>
       </c>
       <c r="I88" t="n">
         <v>4</v>
@@ -7047,10 +6889,8 @@
           <t>5157499646</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:08:43</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44422.75605324074</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7118,10 +6958,8 @@
           <t>5157500921</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:08:33</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44422.7559375</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7193,10 +7031,8 @@
           <t>5157494184</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:08:01</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44422.75556712963</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7264,10 +7100,8 @@
           <t>5156140025</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:06:51</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44422.75475694444</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7339,10 +7173,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:05:57</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44422.75413194444</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7410,10 +7242,8 @@
           <t>5157452712</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-14 18:03:41</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44422.75255787037</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7489,10 +7319,8 @@
           <t>5156631354</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:59:59</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44422.74998842592</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7564,10 +7392,8 @@
           <t>5157365086</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:53:01</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44422.74515046296</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7639,10 +7465,8 @@
           <t>5156589113</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:52:04</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44422.74449074074</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7714,10 +7538,8 @@
           <t>5157350984</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:51:39</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44422.74420138889</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7789,10 +7611,8 @@
           <t>5156631354</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:48:34</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44422.74206018518</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7856,10 +7676,8 @@
           <t>5156140025</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:46:50</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44422.74085648148</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7933,10 +7751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:44:47</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44422.73943287037</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -8012,10 +7828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:42:53</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44422.73811342593</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -8083,10 +7897,8 @@
           <t>5157264658</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:42:18</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44422.73770833333</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8154,10 +7966,8 @@
           <t>5157263854</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:42:01</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44422.73751157407</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8221,10 +8031,8 @@
           <t>5156911541</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:40:25</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44422.73640046296</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8300,10 +8108,8 @@
           <t>5157252314</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:40:15</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44422.73628472222</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8371,10 +8177,8 @@
           <t>5157232877</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:38:08</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44422.73481481482</v>
       </c>
       <c r="I107" t="n">
         <v>2</v>
@@ -8442,10 +8246,8 @@
           <t>5157220548</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:36:09</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44422.7334375</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8517,10 +8319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:35:39</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44422.73309027778</v>
       </c>
       <c r="I109" t="n">
         <v>16</v>
@@ -8588,10 +8388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:27:33</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44422.72746527778</v>
       </c>
       <c r="I110" t="n">
         <v>7</v>
@@ -8663,10 +8461,8 @@
           <t>5154427896</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:17:28</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44422.72046296296</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8730,10 +8526,8 @@
           <t>5156621535</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:15:30</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44422.71909722222</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8809,10 +8603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:15:15</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44422.71892361111</v>
       </c>
       <c r="I113" t="n">
         <v>3</v>
@@ -8876,10 +8668,8 @@
           <t>5157043492</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:15:03</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44422.71878472222</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8943,10 +8733,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:13:36</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44422.71777777778</v>
       </c>
       <c r="I115" t="n">
         <v>3</v>
@@ -9010,10 +8798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:11:58</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44422.71664351852</v>
       </c>
       <c r="I116" t="n">
         <v>3</v>
@@ -9081,10 +8867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:10:51</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44422.71586805556</v>
       </c>
       <c r="I117" t="n">
         <v>8</v>
@@ -9156,10 +8940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:09:06</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44422.71465277778</v>
       </c>
       <c r="I118" t="n">
         <v>1</v>
@@ -9223,10 +9005,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:06:31</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44422.71285879629</v>
       </c>
       <c r="I119" t="n">
         <v>2</v>
@@ -9294,10 +9074,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:05:16</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44422.71199074074</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9373,10 +9151,8 @@
           <t>5156966711</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:05:01</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44422.71181712963</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9452,10 +9228,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:01:47</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44422.70957175926</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9527,10 +9301,8 @@
           <t>5156923557</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-14 17:00:20</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44422.70856481481</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9602,10 +9374,8 @@
           <t>5156912911</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:58:16</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44422.70712962963</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9681,10 +9451,8 @@
           <t>5156911541</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:57:46</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44422.7067824074</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9756,10 +9524,8 @@
           <t>5156895246</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:55:23</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44422.70512731482</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9831,10 +9597,8 @@
           <t>5156878262</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:54:27</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44422.70447916666</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9906,10 +9670,8 @@
           <t>5156885497</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:54:02</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44422.70418981482</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9981,10 +9743,8 @@
           <t>5156861827</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:53:47</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44422.7040162037</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10048,10 +9808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:52:14</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44422.70293981482</v>
       </c>
       <c r="I130" t="n">
         <v>1</v>
@@ -10127,10 +9885,8 @@
           <t>5156861827</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:51:59</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44422.70276620371</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10207,10 +9963,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:51:32</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44422.70245370371</v>
       </c>
       <c r="I132" t="n">
         <v>4</v>
@@ -10286,10 +10040,8 @@
           <t>5156853401</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:51:03</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44422.70211805555</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10361,10 +10113,8 @@
           <t>5156731133</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:50:00</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44422.70138888889</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10428,10 +10178,8 @@
           <t>5156731133</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:49:40</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44422.70115740741</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10503,10 +10251,8 @@
           <t>5156590978</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:49:06</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44422.70076388889</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10570,10 +10316,8 @@
           <t>5156709553</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:48:21</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44422.70024305556</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10645,10 +10389,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:47:32</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44422.69967592593</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10720,10 +10462,8 @@
           <t>5156731133</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:47:18</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44422.69951388889</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10787,10 +10527,8 @@
           <t>5156823390</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:46:46</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44422.69914351852</v>
       </c>
       <c r="I140" t="n">
         <v>5</v>
@@ -10854,10 +10592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:46:22</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44422.69886574074</v>
       </c>
       <c r="I141" t="n">
         <v>3</v>
@@ -10921,10 +10657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:46:18</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44422.69881944444</v>
       </c>
       <c r="I142" t="n">
         <v>2</v>
@@ -10992,10 +10726,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:46:14</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44422.69877314815</v>
       </c>
       <c r="I143" t="n">
         <v>5</v>
@@ -11059,10 +10791,8 @@
           <t>5156709553</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:45:44</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44422.69842592593</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -11138,10 +10868,8 @@
           <t>5156812627</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:44:55</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44422.69785879629</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11217,10 +10945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:44:38</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44422.69766203704</v>
       </c>
       <c r="I146" t="n">
         <v>8</v>
@@ -11287,10 +11013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:43:48</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44422.69708333333</v>
       </c>
       <c r="I147" t="n">
         <v>20</v>
@@ -11366,10 +11090,8 @@
           <t>5156791507</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:41:54</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44422.69576388889</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11437,10 +11159,8 @@
           <t>5156790617</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:41:33</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44422.69552083333</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11504,10 +11224,8 @@
           <t>5156731133</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:40:09</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44422.69454861111</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11571,10 +11289,8 @@
           <t>5156631354</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:36:01</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44422.69167824074</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11646,10 +11362,8 @@
           <t>5156741055</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:35:08</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44422.69106481481</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11717,10 +11431,8 @@
           <t>5156731133</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:33:59</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44422.6902662037</v>
       </c>
       <c r="I153" t="n">
         <v>2</v>
@@ -11784,10 +11496,8 @@
           <t>5156719835</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:33:30</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44422.68993055556</v>
       </c>
       <c r="I154" t="n">
         <v>3</v>
@@ -11864,10 +11574,8 @@
           <t>5156709553</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:32:21</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44422.68913194445</v>
       </c>
       <c r="I155" t="n">
         <v>8</v>
@@ -11939,10 +11647,8 @@
           <t>5156589113</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:31:55</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44422.68883101852</v>
       </c>
       <c r="I156" t="n">
         <v>5</v>
@@ -12018,10 +11724,8 @@
           <t>5156710066</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:30:46</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44422.68803240741</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -12098,10 +11802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:30:24</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44422.68777777778</v>
       </c>
       <c r="I158" t="n">
         <v>3</v>
@@ -12166,10 +11868,8 @@
           <t>5156686367</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:28:15</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44422.68628472222</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12246,10 +11946,8 @@
           <t>5156664205</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:25:50</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44422.68460648148</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12326,10 +12024,8 @@
           <t>5156662489</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:25:07</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44422.6841087963</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12393,10 +12089,8 @@
           <t>5156661236</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:24:34</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44422.68372685185</v>
       </c>
       <c r="I162" t="n">
         <v>1</v>
@@ -12468,10 +12162,8 @@
           <t>5156621535</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:22:47</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44422.68248842593</v>
       </c>
       <c r="I163" t="n">
         <v>3</v>
@@ -12535,10 +12227,8 @@
           <t>5156624334</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:21:00</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44422.68125</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12606,10 +12296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:20:54</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44422.68118055556</v>
       </c>
       <c r="I165" t="n">
         <v>8</v>
@@ -12673,10 +12361,8 @@
           <t>5156624027</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:20:53</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44422.68116898148</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12740,10 +12426,8 @@
           <t>5156631354</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:20:22</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44422.68081018519</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12807,10 +12491,8 @@
           <t>5156621535</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:19:55</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44422.68049768519</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12874,10 +12556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:19:09</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44422.67996527778</v>
       </c>
       <c r="I169" t="n">
         <v>26</v>
@@ -12949,10 +12629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:17:33</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44422.67885416667</v>
       </c>
       <c r="I170" t="n">
         <v>10</v>
@@ -13020,10 +12698,8 @@
           <t>5156602432</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:16:51</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44422.67836805555</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13087,10 +12763,8 @@
           <t>5156590978</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:15:53</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44422.67769675926</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13154,10 +12828,8 @@
           <t>5156589113</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:15:31</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44422.67744212963</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13233,10 +12905,8 @@
           <t>5154384180</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:15:24</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44422.67736111111</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13308,10 +12978,8 @@
           <t>5156584292</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:15:18</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44422.67729166667</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13375,10 +13043,8 @@
           <t>5156576627</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:13:58</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44422.67636574074</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13442,10 +13108,8 @@
           <t>5156573833</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:13:27</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44422.67600694444</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13509,10 +13173,8 @@
           <t>5156565501</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:11:58</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44422.67497685185</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13576,10 +13238,8 @@
           <t>5156556507</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:10:35</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44422.6740162037</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13651,10 +13311,8 @@
           <t>5156544153</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:09:39</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44422.67336805556</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13718,10 +13376,8 @@
           <t>5156534028</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:08:32</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44422.67259259259</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13785,10 +13441,8 @@
           <t>5156515540</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-14 16:04:50</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44422.67002314814</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13852,10 +13506,8 @@
           <t>5156448303</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:57:16</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44422.66476851852</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13927,10 +13579,8 @@
           <t>5156426747</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:53:11</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44422.66193287037</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13994,10 +13644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:49:14</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44422.65918981482</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14065,10 +13713,8 @@
           <t>5156382987</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:47:55</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44422.65827546296</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14140,10 +13786,8 @@
           <t>5156378915</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:47:40</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44422.65810185186</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14211,10 +13855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:45:56</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44422.65689814815</v>
       </c>
       <c r="I188" t="n">
         <v>12</v>
@@ -14278,10 +13920,8 @@
           <t>5156367536</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:45:47</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44422.65679398148</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14350,10 +13990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:44:03</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44422.65559027778</v>
       </c>
       <c r="I190" t="n">
         <v>13</v>
@@ -14429,10 +14067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:42:18</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44422.654375</v>
       </c>
       <c r="I191" t="n">
         <v>11</v>
@@ -14508,10 +14144,8 @@
           <t>5156309113</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:38:00</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44422.65138888889</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14583,10 +14217,8 @@
           <t>5156303158</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:36:52</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44422.65060185185</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14658,10 +14290,8 @@
           <t>5156279340</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:33:42</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44422.64840277778</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14732,10 +14362,8 @@
           <t>5156275797</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:32:08</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44422.64731481481</v>
       </c>
       <c r="I195" t="n">
         <v>3</v>
@@ -14799,10 +14427,8 @@
           <t>5156266343</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:31:40</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44422.64699074074</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14878,10 +14504,8 @@
           <t>5156247897</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:28:37</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44422.64487268519</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14945,10 +14569,8 @@
           <t>5156243289</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:28:33</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44422.64482638889</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15020,10 +14642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:27:55</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44422.64438657407</v>
       </c>
       <c r="I199" t="n">
         <v>6</v>
@@ -15087,10 +14707,8 @@
           <t>5156233893</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:26:47</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44422.64359953703</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15154,10 +14772,8 @@
           <t>5156222926</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:26:15</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44422.64322916666</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15233,10 +14849,8 @@
           <t>5156219329</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:24:48</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44422.64222222222</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15307,10 +14921,8 @@
           <t>5156218037</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:24:18</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44422.641875</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15386,10 +14998,8 @@
           <t>5156137831</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:13:27</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44422.63434027778</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15461,10 +15071,8 @@
           <t>5156140025</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:12:59</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44422.6340162037</v>
       </c>
       <c r="I205" t="n">
         <v>7</v>
@@ -15536,10 +15144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:12:11</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44422.63346064815</v>
       </c>
       <c r="I206" t="n">
         <v>2</v>
@@ -15615,10 +15221,8 @@
           <t>5156123140</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:11:28</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44422.63296296296</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15694,10 +15298,8 @@
           <t>5156122071</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:11:00</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44422.63263888889</v>
       </c>
       <c r="I208" t="n">
         <v>1</v>
@@ -15773,10 +15375,8 @@
           <t>5156094711</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:07:52</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44422.63046296296</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15848,10 +15448,8 @@
           <t>5156092443</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:06:54</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44422.62979166667</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15915,10 +15513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:06:27</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44422.62947916667</v>
       </c>
       <c r="I211" t="n">
         <v>9</v>
@@ -15986,10 +15582,8 @@
           <t>5156079989</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:05:52</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44422.62907407407</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -16057,10 +15651,8 @@
           <t>5156081899</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:05:41</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44422.62894675926</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16132,10 +15724,8 @@
           <t>5156076313</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:04:20</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44422.62800925926</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16207,10 +15797,8 @@
           <t>5155394994</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:04:18</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44422.62798611111</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16282,10 +15870,8 @@
           <t>5156072002</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:03:43</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44422.62758101852</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16357,10 +15943,8 @@
           <t>5156050818</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:00:39</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44422.62545138889</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16436,10 +16020,8 @@
           <t>5156047497</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:00:35</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44422.62540509259</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16515,10 +16097,8 @@
           <t>5155239355</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:00:12</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44422.62513888889</v>
       </c>
       <c r="I219" t="n">
         <v>5</v>
@@ -16595,10 +16175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:56:43</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44422.62271990741</v>
       </c>
       <c r="I220" t="n">
         <v>41</v>
@@ -16666,10 +16244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:52:06</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44422.61951388889</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16745,10 +16321,8 @@
           <t>5155394994</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:49:07</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44422.61744212963</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16820,10 +16394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:48:15</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44422.61684027778</v>
       </c>
       <c r="I223" t="n">
         <v>7</v>
@@ -16900,10 +16472,8 @@
           <t>5155951451</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:47:16</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44422.61615740741</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16975,10 +16545,8 @@
           <t>5155949826</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:46:46</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44422.61581018518</v>
       </c>
       <c r="I225" t="n">
         <v>2</v>
@@ -17042,10 +16610,8 @@
           <t>5155394994</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:46:22</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44422.61553240741</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17117,10 +16683,8 @@
           <t>5154917909</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:43:56</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44422.61384259259</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17192,10 +16756,8 @@
           <t>5155931621</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:43:28</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44422.61351851852</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17267,10 +16829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:42:16</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44422.61268518519</v>
       </c>
       <c r="I229" t="n">
         <v>11</v>
@@ -17338,10 +16898,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:41:25</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44422.61209490741</v>
       </c>
       <c r="I230" t="n">
         <v>5</v>
@@ -17409,10 +16967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:40:12</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44422.61125</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17491,10 +17047,8 @@
           <t>5155239355</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:38:36</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44422.61013888889</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17562,10 +17116,8 @@
           <t>5155813882</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:28:44</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44422.60328703704</v>
       </c>
       <c r="I233" t="n">
         <v>2</v>
@@ -17637,10 +17189,8 @@
           <t>5155799887</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:26:59</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44422.60207175926</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17712,10 +17262,8 @@
           <t>5155798148</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:26:13</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44422.60153935185</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17779,10 +17327,8 @@
           <t>5155797753</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:26:03</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44422.60142361111</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17858,10 +17404,8 @@
           <t>5155795578</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:25:08</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44422.60078703704</v>
       </c>
       <c r="I237" t="n">
         <v>1</v>
@@ -17929,10 +17473,8 @@
           <t>5155790692</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:24:00</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44422.6</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -18008,10 +17550,8 @@
           <t>5155782250</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:23:42</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44422.59979166667</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -18079,10 +17619,8 @@
           <t>5155779261</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:23:18</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44422.59951388889</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18154,10 +17692,8 @@
           <t>5155239355</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:22:32</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44422.59898148148</v>
       </c>
       <c r="I241" t="n">
         <v>5</v>
@@ -18225,10 +17761,8 @@
           <t>5155764352</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:21:28</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44422.59824074074</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18296,10 +17830,8 @@
           <t>5155757324</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:20:38</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44422.59766203703</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18367,10 +17899,8 @@
           <t>5155756634</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:20:21</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44422.59746527778</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18442,10 +17972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:20:09</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44422.59732638889</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18513,10 +18041,8 @@
           <t>5155749029</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:19:28</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44422.59685185185</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18584,10 +18110,8 @@
           <t>5155740163</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:17:45</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44422.59565972222</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18657,10 +18181,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:17:09</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44422.59524305556</v>
       </c>
       <c r="I248" t="n">
         <v>5</v>
@@ -18728,10 +18250,8 @@
           <t>5155728016</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:16:54</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44422.59506944445</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18799,10 +18319,8 @@
           <t>5155509198</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:13:18</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44422.59256944444</v>
       </c>
       <c r="I250" t="n">
         <v>2</v>
@@ -18878,10 +18396,8 @@
           <t>5155696051</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:12:15</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44422.59184027778</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18949,10 +18465,8 @@
           <t>5155688898</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:11:51</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44422.5915625</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19020,10 +18534,8 @@
           <t>5154967044</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:07:54</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44422.58881944444</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19099,10 +18611,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:07:32</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44422.58856481482</v>
       </c>
       <c r="I254" t="n">
         <v>9</v>
@@ -19170,10 +18680,8 @@
           <t>5155650920</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:06:20</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44422.58773148148</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19241,10 +18749,8 @@
           <t>5155655256</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:06:11</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44422.58762731482</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19312,10 +18818,8 @@
           <t>5155637952</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:05:12</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44422.58694444445</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19387,10 +18891,8 @@
           <t>5155509198</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:04:55</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44422.58674768519</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19458,10 +18960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:04:36</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44422.58652777778</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19525,10 +19025,8 @@
           <t>5155535783</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-14 14:02:15</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44422.58489583333</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19596,10 +19094,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:59:18</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44422.58284722222</v>
       </c>
       <c r="I261" t="n">
         <v>26</v>
@@ -19663,10 +19159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:57:52</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44422.58185185185</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19742,10 +19236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:54:08</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44422.57925925926</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19809,10 +19301,8 @@
           <t>5155535783</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:50:57</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44422.57704861111</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19876,10 +19366,8 @@
           <t>5155477929</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:50:40</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44422.57685185185</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19955,10 +19443,8 @@
           <t>5155214924</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:49:54</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44422.57631944444</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -20027,10 +19513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:49:21</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44422.5759375</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20094,10 +19578,8 @@
           <t>5155520592</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:49:06</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44422.57576388889</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20169,10 +19651,8 @@
           <t>5155509198</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:48:36</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44422.57541666667</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -20248,10 +19728,8 @@
           <t>5155498039</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:46:39</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44422.5740625</v>
       </c>
       <c r="I270" t="n">
         <v>2</v>
@@ -20319,10 +19797,8 @@
           <t>5155477929</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:44:34</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44422.57261574074</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20390,10 +19866,8 @@
           <t>5155468060</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:42:55</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44422.57146990741</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20457,10 +19931,8 @@
           <t>5155458924</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:42:09</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44422.5709375</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20532,10 +20004,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:42:03</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44422.57086805555</v>
       </c>
       <c r="I274" t="n">
         <v>6</v>
@@ -20603,10 +20073,8 @@
           <t>5155465185</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:41:54</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44422.57076388889</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20671,10 +20139,8 @@
           <t>5155433160</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:38:43</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44422.56855324074</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20746,10 +20212,8 @@
           <t>5155435199</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:38:26</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44422.56835648148</v>
       </c>
       <c r="I277" t="n">
         <v>2</v>
@@ -20817,10 +20281,8 @@
           <t>5155422991</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:37:41</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44422.56783564815</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20884,10 +20346,8 @@
           <t>5155184603</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:36:58</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44422.56733796297</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20955,10 +20415,8 @@
           <t>5155239355</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:36:53</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44422.56728009259</v>
       </c>
       <c r="I280" t="n">
         <v>2</v>
@@ -21022,10 +20480,8 @@
           <t>5155407349</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:35:46</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44422.56650462963</v>
       </c>
       <c r="I281" t="n">
         <v>3</v>
@@ -21089,10 +20545,8 @@
           <t>5154988914</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:35:27</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44422.56628472222</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21173,10 +20627,8 @@
           <t>5155406199</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:35:22</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44422.56622685185</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21244,10 +20696,8 @@
           <t>5155410555</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:35:22</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44422.56622685185</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21319,10 +20769,8 @@
           <t>5155394994</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:34:58</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44422.56594907407</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21390,10 +20838,8 @@
           <t>5155397127</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:34:08</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44422.56537037037</v>
       </c>
       <c r="I286" t="n">
         <v>3</v>
@@ -21457,10 +20903,8 @@
           <t>5155396069</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:33:44</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44422.56509259259</v>
       </c>
       <c r="I287" t="n">
         <v>4</v>
@@ -21536,10 +20980,8 @@
           <t>5155214924</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:33:43</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44422.56508101852</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21603,10 +21045,8 @@
           <t>5154420874</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:32:30</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44422.56423611111</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21676,10 +21116,8 @@
           <t>5155377403</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:32:21</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44422.56413194445</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21743,10 +21181,8 @@
           <t>5155364981</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:31:35</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44422.56359953704</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21810,10 +21246,8 @@
           <t>5155239355</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:31:31</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44422.56355324074</v>
       </c>
       <c r="I292" t="n">
         <v>2</v>
@@ -21881,10 +21315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:30:34</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44422.56289351852</v>
       </c>
       <c r="I293" t="n">
         <v>3</v>
@@ -21952,10 +21384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:29:47</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44422.56234953704</v>
       </c>
       <c r="I294" t="n">
         <v>12</v>
@@ -22019,10 +21449,8 @@
           <t>5154961835</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:28:54</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44422.56173611111</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22098,10 +21526,8 @@
           <t>5155239355</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:28:46</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44422.56164351852</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22165,10 +21591,8 @@
           <t>5155351073</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:28:14</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44422.56127314815</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22237,10 +21661,8 @@
           <t>5155355004</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:28:08</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44422.56120370371</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22310,10 +21732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:27:59</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44422.56109953704</v>
       </c>
       <c r="I299" t="n">
         <v>11</v>
@@ -22389,10 +21809,8 @@
           <t>5155343839</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:27:45</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44422.5609375</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22468,10 +21886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:27:30</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44422.56076388889</v>
       </c>
       <c r="I301" t="n">
         <v>1</v>
@@ -22540,10 +21956,8 @@
           <t>5155341257</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:26:53</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44422.56033564815</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22619,10 +22033,8 @@
           <t>5155184603</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:26:37</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44422.56015046296</v>
       </c>
       <c r="I303" t="n">
         <v>2</v>
@@ -22698,10 +22110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:26:29</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44422.56005787037</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22761,10 +22171,8 @@
           <t>5155328506</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:26:01</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44422.5597337963</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22836,10 +22244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:25:56</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44422.55967592593</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22915,10 +22321,8 @@
           <t>5155327899</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:25:50</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44422.55960648148</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22990,10 +22394,8 @@
           <t>5155239355</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:25:15</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44422.55920138889</v>
       </c>
       <c r="I308" t="n">
         <v>1</v>
@@ -23061,10 +22463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:25:00</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44422.55902777778</v>
       </c>
       <c r="I309" t="n">
         <v>14</v>
@@ -23138,10 +22538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:24:35</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44422.55873842593</v>
       </c>
       <c r="I310" t="n">
         <v>18</v>
@@ -23205,10 +22603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:23:04</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44422.55768518519</v>
       </c>
       <c r="I311" t="n">
         <v>17</v>
@@ -23268,10 +22664,8 @@
           <t>5155285004</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:20:09</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44422.55565972222</v>
       </c>
       <c r="I312" t="n">
         <v>3</v>
@@ -23347,10 +22741,8 @@
           <t>5155274244</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:19:47</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44422.55540509259</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23426,10 +22818,8 @@
           <t>5155268476</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:19:34</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44422.55525462963</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23505,10 +22895,8 @@
           <t>5155239355</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:19:28</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44422.55518518519</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23572,10 +22960,8 @@
           <t>5155272614</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:19:15</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44422.55503472222</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23639,10 +23025,8 @@
           <t>5155264302</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:18:41</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44422.5546412037</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23718,10 +23102,8 @@
           <t>5154638960</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:18:30</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44422.55451388889</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23785,10 +23167,8 @@
           <t>5155265479</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:18:26</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44422.55446759259</v>
       </c>
       <c r="I319" t="n">
         <v>2</v>
@@ -23864,10 +23244,8 @@
           <t>5155239355</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:18:15</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44422.55434027778</v>
       </c>
       <c r="I320" t="n">
         <v>2</v>
@@ -23935,10 +23313,8 @@
           <t>5155259372</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:18:13</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44422.55431712963</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -24014,10 +23390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:17:42</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44422.55395833333</v>
       </c>
       <c r="I322" t="n">
         <v>4</v>
@@ -24081,10 +23455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:16:40</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44422.55324074074</v>
       </c>
       <c r="I323" t="n">
         <v>22</v>
@@ -24160,10 +23532,8 @@
           <t>5155239355</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:16:09</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44422.55288194444</v>
       </c>
       <c r="I324" t="n">
         <v>6</v>
@@ -24227,10 +23597,8 @@
           <t>5155247029</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:16:07</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44422.5528587963</v>
       </c>
       <c r="I325" t="n">
         <v>9</v>
@@ -24294,10 +23662,8 @@
           <t>5155242425</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:16:03</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44422.5528125</v>
       </c>
       <c r="I326" t="n">
         <v>4</v>
@@ -24369,10 +23735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:15:41</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44422.55255787037</v>
       </c>
       <c r="I327" t="n">
         <v>11</v>
@@ -24436,10 +23800,8 @@
           <t>5155245811</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:15:41</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44422.55255787037</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24507,10 +23869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:15:27</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44422.55239583334</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24582,10 +23942,8 @@
           <t>5155229248</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:15:08</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44422.55217592593</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24657,10 +24015,8 @@
           <t>5155232109</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:14:24</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44422.55166666667</v>
       </c>
       <c r="I331" t="n">
         <v>2</v>
@@ -24736,10 +24092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:14:03</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44422.55142361111</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24811,10 +24165,8 @@
           <t>5155184603</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:14:00</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44422.55138888889</v>
       </c>
       <c r="I333" t="n">
         <v>1</v>
@@ -24878,10 +24230,8 @@
           <t>5155214924</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:13:39</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44422.55114583333</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24949,10 +24299,8 @@
           <t>5155217749</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:12:59</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44422.55068287037</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25020,10 +24368,8 @@
           <t>5154891831</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:12:52</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44422.55060185185</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25087,10 +24433,8 @@
           <t>5155198849</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:12:43</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44422.55049768519</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25158,10 +24502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:12:41</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44422.55047453703</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -25225,10 +24567,8 @@
           <t>5155209931</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:12:38</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44422.55043981481</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25304,10 +24644,8 @@
           <t>5155208993</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:12:16</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44422.55018518519</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25383,10 +24721,8 @@
           <t>5155198849</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:11:32</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44422.54967592593</v>
       </c>
       <c r="I341" t="n">
         <v>4</v>
@@ -25454,10 +24790,8 @@
           <t>5155201723</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:11:07</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44422.54938657407</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25533,10 +24867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:11:07</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44422.54938657407</v>
       </c>
       <c r="I343" t="n">
         <v>13</v>
@@ -25604,10 +24936,8 @@
           <t>5155196768</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:10:49</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44422.54917824074</v>
       </c>
       <c r="I344" t="n">
         <v>2</v>
@@ -25683,10 +25013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:10:44</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44422.54912037037</v>
       </c>
       <c r="I345" t="n">
         <v>4</v>
@@ -25763,10 +25091,8 @@
           <t>5155184603</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:10:05</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44422.54866898148</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -25842,10 +25168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:10:01</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44422.54862268519</v>
       </c>
       <c r="I347" t="n">
         <v>1</v>
@@ -25921,10 +25245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:09:56</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44422.54856481482</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25992,10 +25314,8 @@
           <t>5155167502</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:07:38</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44422.54696759259</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26071,10 +25391,8 @@
           <t>5155165705</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:07:02</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44422.54655092592</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -26146,10 +25464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:06:51</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44422.54642361111</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26217,10 +25533,8 @@
           <t>5155162403</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:06:34</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44422.54622685185</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26288,10 +25602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:06:30</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44422.54618055555</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26351,10 +25663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:06:07</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44422.54591435185</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26426,10 +25736,8 @@
           <t>5155156244</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:05:37</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44422.54556712963</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26493,10 +25801,8 @@
           <t>5155149264</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:05:37</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44422.54556712963</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26568,10 +25874,8 @@
           <t>5154641943</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:03:39</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44422.54420138889</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26635,10 +25939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:03:19</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44422.5439699074</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26710,10 +26012,8 @@
           <t>5154988914</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:02:32</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44422.54342592593</v>
       </c>
       <c r="I359" t="n">
         <v>2</v>
@@ -26786,10 +26086,8 @@
           <t>5155116506</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:01:35</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44422.5427662037</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26865,10 +26163,8 @@
           <t>5155104739</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:01:01</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44422.54237268519</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26944,10 +26240,8 @@
           <t>5155108055</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-14 13:00:41</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44422.5421412037</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27023,10 +26317,8 @@
           <t>5154859220</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:59:19</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44422.54119212963</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27094,10 +26386,8 @@
           <t>5155098072</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:59:15</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44422.54114583333</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27173,10 +26463,8 @@
           <t>5155096742</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:58:48</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44422.54083333333</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27252,10 +26540,8 @@
           <t>5155092196</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:58:41</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44422.54075231482</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27331,10 +26617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:57:52</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44422.54018518519</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27394,10 +26678,8 @@
           <t>5155083020</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:57:32</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44422.5399537037</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27469,10 +26751,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:54:12</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44422.53763888889</v>
       </c>
       <c r="I369" t="n">
         <v>5</v>
@@ -27532,10 +26812,8 @@
           <t>5155028460</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:51:43</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44422.53591435185</v>
       </c>
       <c r="I370" t="n">
         <v>3</v>
@@ -27603,10 +26881,8 @@
           <t>5154984447</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:50:18</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44422.53493055556</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27682,10 +26958,8 @@
           <t>5154998428</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:48:20</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44422.53356481482</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27761,10 +27035,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:48:19</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44422.53355324074</v>
       </c>
       <c r="I373" t="n">
         <v>15</v>
@@ -27828,10 +27100,8 @@
           <t>5154988914</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:47:43</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44422.53313657407</v>
       </c>
       <c r="I374" t="n">
         <v>2</v>
@@ -27907,10 +27177,8 @@
           <t>5154996147</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:47:38</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44422.5330787037</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27974,10 +27242,8 @@
           <t>5154984447</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:47:06</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44422.53270833333</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -28053,10 +27319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:47:03</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44422.53267361111</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -28120,10 +27384,8 @@
           <t>5154345610</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:46:55</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44422.53258101852</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28191,10 +27453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:46:24</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44422.53222222222</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -28262,10 +27522,8 @@
           <t>5154981716</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:46:16</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44422.53212962963</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28341,10 +27599,8 @@
           <t>5154638960</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:45:58</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44422.53192129629</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28412,10 +27668,8 @@
           <t>5154977406</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:45:54</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44422.531875</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28491,10 +27745,8 @@
           <t>5154967044</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:44:53</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44422.53116898148</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28570,10 +27822,8 @@
           <t>5154961835</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:43:54</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44422.53048611111</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28649,10 +27899,8 @@
           <t>5154953891</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:43:53</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44422.53047453704</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28712,10 +27960,8 @@
           <t>5154956929</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:43:43</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44422.5303587963</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28783,10 +28029,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:43:30</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44422.53020833333</v>
       </c>
       <c r="I387" t="n">
         <v>24</v>
@@ -28866,10 +28110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:43:09</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44422.52996527778</v>
       </c>
       <c r="I388" t="n">
         <v>7</v>
@@ -28929,10 +28171,8 @@
           <t>5154538766</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:42:34</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44422.52956018518</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -29008,10 +28248,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:42:17</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44422.52936342593</v>
       </c>
       <c r="I390" t="n">
         <v>9</v>
@@ -29071,10 +28309,8 @@
           <t>5154942233</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:42:09</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44422.52927083334</v>
       </c>
       <c r="I391" t="n">
         <v>12</v>
@@ -29154,10 +28390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:41:49</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44422.52903935185</v>
       </c>
       <c r="I392" t="n">
         <v>14</v>
@@ -29233,10 +28467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:41:32</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44422.52884259259</v>
       </c>
       <c r="I393" t="n">
         <v>61</v>
@@ -29308,10 +28540,8 @@
           <t>5154384180</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:41:21</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44422.52871527777</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29383,10 +28613,8 @@
           <t>5154546356</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:40:58</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44422.52844907407</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29454,10 +28682,8 @@
           <t>5154641943</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:40:45</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44422.52829861111</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29541,10 +28767,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:40:08</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44422.52787037037</v>
       </c>
       <c r="I397" t="n">
         <v>14</v>
@@ -29608,10 +28832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:39:27</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44422.52739583333</v>
       </c>
       <c r="I398" t="n">
         <v>6</v>
@@ -29687,10 +28909,8 @@
           <t>5154917909</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:38:57</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44422.52704861111</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29758,10 +28978,8 @@
           <t>5154906782</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:38:27</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44422.52670138889</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29829,10 +29047,8 @@
           <t>5154911045</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:38:23</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44422.5266550926</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29900,10 +29116,8 @@
           <t>5154389704</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:38:09</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44422.52649305556</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29975,10 +29189,8 @@
           <t>5154897475</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:37:12</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44422.52583333333</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -30046,10 +29258,8 @@
           <t>5154859220</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:36:57</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44422.52565972223</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -30113,10 +29323,8 @@
           <t>5154891831</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:36:39</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44422.52545138889</v>
       </c>
       <c r="I405" t="n">
         <v>3</v>
@@ -30188,10 +29396,8 @@
           <t>5154879287</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:35:45</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44422.52482638889</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -30264,10 +29470,8 @@
           <t>5154885989</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:35:19</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44422.52452546296</v>
       </c>
       <c r="I407" t="n">
         <v>4</v>
@@ -30335,10 +29539,8 @@
           <t>5154873623</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:34:33</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44422.52399305555</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30402,10 +29604,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:34:07</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44422.52369212963</v>
       </c>
       <c r="I409" t="n">
         <v>6</v>
@@ -30473,10 +29673,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:33:26</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44422.52321759259</v>
       </c>
       <c r="I410" t="n">
         <v>4</v>
@@ -30544,10 +29742,8 @@
           <t>5154859220</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:33:13</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44422.52306712963</v>
       </c>
       <c r="I411" t="n">
         <v>1</v>
@@ -30612,10 +29808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:33:02</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44422.52293981481</v>
       </c>
       <c r="I412" t="n">
         <v>3</v>
@@ -30691,10 +29885,8 @@
           <t>5154860384</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:32:32</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44422.52259259259</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30770,10 +29962,8 @@
           <t>5154856260</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:32:19</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44422.52244212963</v>
       </c>
       <c r="I414" t="n">
         <v>5</v>
@@ -30841,10 +30031,8 @@
           <t>5154384180</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:32:12</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44422.52236111111</v>
       </c>
       <c r="I415" t="n">
         <v>6</v>
@@ -30920,10 +30108,8 @@
           <t>5154820106</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:31:18</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44422.52173611111</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -31002,10 +30188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:30:39</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44422.52128472222</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -31081,10 +30265,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:28:19</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44422.51966435185</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -31148,10 +30330,8 @@
           <t>5154820106</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:28:07</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44422.51952546297</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31223,10 +30403,8 @@
           <t>5154670408</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:26:32</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44422.51842592593</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31340,10 +30518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:25:35</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44422.5177662037</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31420,10 +30596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:25:27</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44422.51767361111</v>
       </c>
       <c r="I422" t="n">
         <v>3</v>
@@ -31491,10 +30665,8 @@
           <t>5154708342</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:23:44</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44422.51648148148</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31570,10 +30742,8 @@
           <t>5154771131</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:23:10</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44422.51608796296</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31645,10 +30815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:22:44</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44422.51578703704</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31720,10 +30888,8 @@
           <t>5154605311</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:22:23</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44422.51554398148</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31799,10 +30965,8 @@
           <t>5154708342</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:22:08</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44422.51537037037</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31883,10 +31047,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:21:46</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44422.51511574074</v>
       </c>
       <c r="I428" t="n">
         <v>27</v>
@@ -31967,10 +31129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:21:40</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44422.5150462963</v>
       </c>
       <c r="I429" t="n">
         <v>16</v>
@@ -32038,10 +31198,8 @@
           <t>5154624427</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:21:09</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44422.5146875</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -32117,10 +31275,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:18:37</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44422.51292824074</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -32196,10 +31352,8 @@
           <t>5154708342</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:18:22</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44422.51275462963</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32275,10 +31429,8 @@
           <t>5154335114</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:18:18</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44422.51270833334</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32346,10 +31498,8 @@
           <t>5154715126</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:16:30</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44422.51145833333</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -32413,10 +31563,8 @@
           <t>5154708342</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:16:19</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44422.51133101852</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32480,10 +31628,8 @@
           <t>5154686151</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:13:38</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44422.50946759259</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32547,10 +31693,8 @@
           <t>5154677802</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:13:08</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44422.50912037037</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32622,10 +31766,8 @@
           <t>5154638960</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:13:05</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44422.50908564815</v>
       </c>
       <c r="I438" t="n">
         <v>2</v>
@@ -32689,10 +31831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:12:49</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44422.50890046296</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32769,10 +31909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:12:42</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44422.50881944445</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
@@ -32841,10 +31979,8 @@
           <t>5154675926</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:12:33</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44422.50871527778</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32920,10 +32056,8 @@
           <t>5154668419</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:12:15</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44422.50850694445</v>
       </c>
       <c r="I442" t="n">
         <v>1</v>
@@ -32987,10 +32121,8 @@
           <t>5154668177</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:12:10</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44422.50844907408</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -33058,10 +32190,8 @@
           <t>5154668012</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:12:07</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44422.50841435185</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -33130,10 +32260,8 @@
           <t>5154670408</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:11:46</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44422.50817129629</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -33209,10 +32337,8 @@
           <t>5154658836</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:11:15</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44422.5078125</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33284,10 +32410,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:10:45</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44422.50746527778</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -33359,10 +32483,8 @@
           <t>5154470090</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:10:39</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44422.50739583333</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33434,10 +32556,8 @@
           <t>5154653455</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:10:24</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44422.50722222222</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33509,10 +32629,8 @@
           <t>5154567554</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:09:28</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44422.50657407408</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33588,10 +32706,8 @@
           <t>5154642838</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:09:23</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44422.50651620371</v>
       </c>
       <c r="I451" t="n">
         <v>3</v>
@@ -33655,10 +32771,8 @@
           <t>5154641943</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:09:06</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44422.50631944444</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33722,10 +32836,8 @@
           <t>5154638960</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:09:05</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44422.50630787037</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33793,10 +32905,8 @@
           <t>5154634085</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:09:03</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44422.50628472222</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33860,10 +32970,8 @@
           <t>5154637568</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:08:42</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44422.50604166667</v>
       </c>
       <c r="I455" t="n">
         <v>1</v>
@@ -33928,10 +33036,8 @@
           <t>5154624427</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:07:48</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44422.50541666667</v>
       </c>
       <c r="I456" t="n">
         <v>5</v>
@@ -33999,10 +33105,8 @@
           <t>5154630059</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:07:41</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44422.50533564815</v>
       </c>
       <c r="I457" t="n">
         <v>2</v>
@@ -34066,10 +33170,8 @@
           <t>5154613830</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:06:37</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44422.5045949074</v>
       </c>
       <c r="I458" t="n">
         <v>1</v>
@@ -34141,10 +33243,8 @@
           <t>5154389704</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:06:36</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44422.50458333334</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -34220,10 +33320,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:06:26</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44422.50446759259</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -34295,10 +33393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:06:16</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44422.50435185185</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -34362,10 +33458,8 @@
           <t>5154605583</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:05:17</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44422.50366898148</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34441,10 +33535,8 @@
           <t>5154605311</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:05:13</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44422.50362268519</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34508,10 +33600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:04:00</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44422.50277777778</v>
       </c>
       <c r="I464" t="n">
         <v>13</v>
@@ -34575,10 +33665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:03:20</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44422.50231481482</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34646,10 +33734,8 @@
           <t>5154578378</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:03:18</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44422.50229166666</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34713,10 +33799,8 @@
           <t>5154541326</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:02:51</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44422.50197916666</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34792,10 +33876,8 @@
           <t>5154564639</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:02:20</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44422.50162037037</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34867,10 +33949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:02:09</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44422.50149305556</v>
       </c>
       <c r="I469" t="n">
         <v>21</v>
@@ -34934,10 +34014,8 @@
           <t>5154567554</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:01:50</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44422.50127314815</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -35005,10 +34083,8 @@
           <t>5154542206</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:00:54</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44422.500625</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -35076,10 +34152,8 @@
           <t>5154548701</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:00:44</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44422.50050925926</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -35147,10 +34221,8 @@
           <t>5154548337</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:00:36</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44422.50041666667</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
@@ -35218,10 +34290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:00:28</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44422.50032407408</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35289,10 +34359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-08-14 12:00:28</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44422.50032407408</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35360,10 +34428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:59:59</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44422.49998842592</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35431,10 +34497,8 @@
           <t>5154546356</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:59:53</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44422.49991898148</v>
       </c>
       <c r="I477" t="n">
         <v>2</v>
@@ -35498,10 +34562,8 @@
           <t>5154542206</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:59:32</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44422.49967592592</v>
       </c>
       <c r="I478" t="n">
         <v>0</v>
@@ -35570,10 +34632,8 @@
           <t>5154538766</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:59:02</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44422.49932870371</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35650,10 +34710,8 @@
           <t>5154543158</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:59:00</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44422.49930555555</v>
       </c>
       <c r="I480" t="n">
         <v>3</v>
@@ -35721,10 +34779,8 @@
           <t>5154542206</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:58:42</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44422.49909722222</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35800,10 +34856,8 @@
           <t>5154348720</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:58:42</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44422.49909722222</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35875,10 +34929,8 @@
           <t>5154504781</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:58:41</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44422.49908564815</v>
       </c>
       <c r="I483" t="n">
         <v>9</v>
@@ -35950,10 +35002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:58:33</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44422.49899305555</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -36017,10 +35067,8 @@
           <t>5154541326</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:58:24</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44422.49888888889</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -36105,10 +35153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:58:10</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44422.49872685185</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -36185,10 +35231,8 @@
           <t>5154439396</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:58:04</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44422.49865740741</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -36260,10 +35304,8 @@
           <t>5154529674</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:57:52</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44422.49851851852</v>
       </c>
       <c r="I488" t="n">
         <v>1</v>
@@ -36340,10 +35382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:57:45</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44422.4984375</v>
       </c>
       <c r="I489" t="n">
         <v>11</v>
@@ -36415,10 +35455,8 @@
           <t>5154530178</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:57:31</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44422.49827546296</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36482,10 +35520,8 @@
           <t>5154527786</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:57:16</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44422.49810185185</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36553,10 +35589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:56:52</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44422.49782407407</v>
       </c>
       <c r="I492" t="n">
         <v>0</v>
@@ -36620,10 +35654,8 @@
           <t>5154462500</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:56:26</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44422.49752314815</v>
       </c>
       <c r="I493" t="n">
         <v>3</v>
@@ -36691,10 +35723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:56:13</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44422.49737268518</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36770,10 +35800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:55:40</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44422.49699074074</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36833,10 +35861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:55:33</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44422.49690972222</v>
       </c>
       <c r="I496" t="n">
         <v>4</v>
@@ -36907,10 +35933,8 @@
           <t>5154512322</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:55:30</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44422.496875</v>
       </c>
       <c r="I497" t="n">
         <v>4</v>
@@ -36982,10 +36006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:55:29</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44422.49686342593</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -37057,10 +36079,8 @@
           <t>5154504781</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:55:29</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44422.49686342593</v>
       </c>
       <c r="I499" t="n">
         <v>2</v>
@@ -37128,10 +36148,8 @@
           <t>5154510837</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:55:00</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44422.49652777778</v>
       </c>
       <c r="I500" t="n">
         <v>2</v>
@@ -37207,10 +36225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:54:54</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44422.49645833333</v>
       </c>
       <c r="I501" t="n">
         <v>2</v>
@@ -37274,10 +36290,8 @@
           <t>5154349513</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:54:41</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44422.49630787037</v>
       </c>
       <c r="I502" t="n">
         <v>3</v>
@@ -37341,10 +36355,8 @@
           <t>5154427896</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:54:37</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44422.49626157407</v>
       </c>
       <c r="I503" t="n">
         <v>10</v>
@@ -37412,10 +36424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:54:22</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44422.49608796297</v>
       </c>
       <c r="I504" t="n">
         <v>5</v>
@@ -37479,10 +36489,8 @@
           <t>5154427896</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:54:21</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44422.49607638889</v>
       </c>
       <c r="I505" t="n">
         <v>23</v>
@@ -37546,10 +36554,8 @@
           <t>5154427896</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:54:21</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44422.49607638889</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37621,10 +36627,8 @@
           <t>5154505422</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:54:16</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44422.49601851852</v>
       </c>
       <c r="I507" t="n">
         <v>7</v>
@@ -37700,10 +36704,8 @@
           <t>5154500558</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:53:53</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44422.49575231481</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37775,10 +36777,8 @@
           <t>5154427896</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:53:44</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44422.49564814815</v>
       </c>
       <c r="I509" t="n">
         <v>1</v>
@@ -37846,10 +36846,8 @@
           <t>5154489125</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:53:18</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44422.49534722222</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37913,10 +36911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:53:17</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44422.49533564815</v>
       </c>
       <c r="I511" t="n">
         <v>7</v>
@@ -38083,10 +37079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:53:15</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44422.4953125</v>
       </c>
       <c r="I512" t="n">
         <v>217</v>
@@ -38146,10 +37140,8 @@
           <t>5154420874</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:53:03</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44422.49517361111</v>
       </c>
       <c r="I513" t="n">
         <v>2</v>
@@ -38213,10 +37205,8 @@
           <t>5154487523</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:52:41</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44422.49491898148</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -38288,10 +37278,8 @@
           <t>5154470090</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:52:37</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44422.49487268519</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38372,10 +37360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:51:48</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44422.49430555556</v>
       </c>
       <c r="I516" t="n">
         <v>1</v>
@@ -38443,10 +37429,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:51:48</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44422.49430555556</v>
       </c>
       <c r="I517" t="n">
         <v>5</v>
@@ -38510,10 +37494,8 @@
           <t>5154418386</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:51:44</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44422.49425925926</v>
       </c>
       <c r="I518" t="n">
         <v>2</v>
@@ -38585,10 +37567,8 @@
           <t>5154474722</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:51:38</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44422.49418981482</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38664,10 +37644,8 @@
           <t>5154477894</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:51:36</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44422.49416666666</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38739,10 +37717,8 @@
           <t>5154477382</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:51:25</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44422.49403935186</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38810,10 +37786,8 @@
           <t>5154427896</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:51:07</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44422.49383101852</v>
       </c>
       <c r="I522" t="n">
         <v>1</v>
@@ -38889,10 +37863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:51:00</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44422.49375</v>
       </c>
       <c r="I523" t="n">
         <v>10</v>
@@ -38977,10 +37949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:50:49</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44422.49362268519</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -39056,10 +38026,8 @@
           <t>5154472136</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:50:38</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44422.49349537037</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -39127,10 +38095,8 @@
           <t>5154472078</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:50:37</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44422.49348379629</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -39198,10 +38164,8 @@
           <t>5154369675</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:50:23</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44422.49332175926</v>
       </c>
       <c r="I527" t="n">
         <v>3</v>
@@ -39269,10 +38233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:50:21</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44422.49329861111</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39336,10 +38298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:50:05</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44422.49311342592</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -39407,10 +38367,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:49:55</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44422.49299768519</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39482,10 +38440,8 @@
           <t>5154465432</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:49:54</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44422.49298611111</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39553,10 +38509,8 @@
           <t>5154470090</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:49:52</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44422.49296296296</v>
       </c>
       <c r="I532" t="n">
         <v>9</v>
@@ -39632,10 +38586,8 @@
           <t>5154462500</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:49:41</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44422.49283564815</v>
       </c>
       <c r="I533" t="n">
         <v>1</v>
@@ -39703,10 +38655,8 @@
           <t>5154454283</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:49:33</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44422.49274305555</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39775,10 +38725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:49:24</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44422.49263888889</v>
       </c>
       <c r="I535" t="n">
         <v>4</v>
@@ -39846,10 +38794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:49:18</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44422.49256944445</v>
       </c>
       <c r="I536" t="n">
         <v>10</v>
@@ -39921,10 +38867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:49:10</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44422.49247685185</v>
       </c>
       <c r="I537" t="n">
         <v>5</v>
@@ -39996,10 +38940,8 @@
           <t>5154461045</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:49:10</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44422.49247685185</v>
       </c>
       <c r="I538" t="n">
         <v>2</v>
@@ -40067,10 +39009,8 @@
           <t>5154418386</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:49:00</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44422.49236111111</v>
       </c>
       <c r="I539" t="n">
         <v>2</v>
@@ -40142,10 +39082,8 @@
           <t>5154451326</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:48:25</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44422.49195601852</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -40209,10 +39147,8 @@
           <t>5154455347</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:48:13</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44422.49181712963</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -40272,10 +39208,8 @@
           <t>5154444642</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:48:00</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44422.49166666667</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -40351,10 +39285,8 @@
           <t>5154444191</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:47:51</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44422.4915625</v>
       </c>
       <c r="I543" t="n">
         <v>1</v>
@@ -40418,10 +39350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:47:42</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44422.49145833333</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40485,10 +39415,8 @@
           <t>5154439396</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:47:40</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44422.49143518518</v>
       </c>
       <c r="I545" t="n">
         <v>0</v>
@@ -40569,10 +39497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:47:35</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44422.49137731481</v>
       </c>
       <c r="I546" t="n">
         <v>6</v>
@@ -40636,10 +39562,8 @@
           <t>5154427475</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:47:19</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44422.49119212963</v>
       </c>
       <c r="I547" t="n">
         <v>3</v>
@@ -40707,10 +39631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:46:47</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44422.49082175926</v>
       </c>
       <c r="I548" t="n">
         <v>1</v>
@@ -40795,10 +39717,8 @@
           <t>5154440576</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:46:38</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44422.49071759259</v>
       </c>
       <c r="I549" t="n">
         <v>6</v>
@@ -40862,10 +39782,8 @@
           <t>5154420874</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:46:18</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44422.49048611111</v>
       </c>
       <c r="I550" t="n">
         <v>1</v>
@@ -40935,10 +39853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:46:11</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44422.49040509259</v>
       </c>
       <c r="I551" t="n">
         <v>5</v>
@@ -41002,10 +39918,8 @@
           <t>5154345610</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:45:51</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44422.49017361111</v>
       </c>
       <c r="I552" t="n">
         <v>4</v>
@@ -41073,10 +39987,8 @@
           <t>5154427896</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:45:45</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44422.49010416667</v>
       </c>
       <c r="I553" t="n">
         <v>35</v>
@@ -41152,10 +40064,8 @@
           <t>5154427516</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:45:38</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44422.49002314815</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -41228,10 +40138,8 @@
           <t>5154427475</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:45:37</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44422.49001157407</v>
       </c>
       <c r="I555" t="n">
         <v>5</v>
@@ -41303,10 +40211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:45:25</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44422.48987268518</v>
       </c>
       <c r="I556" t="n">
         <v>8</v>
@@ -41378,10 +40284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:45:15</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44422.48975694444</v>
       </c>
       <c r="I557" t="n">
         <v>8</v>
@@ -41453,10 +40357,8 @@
           <t>5154419380</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:44:59</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44422.48957175926</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -41520,10 +40422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:44:43</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44422.48938657407</v>
       </c>
       <c r="I559" t="n">
         <v>2</v>
@@ -41595,10 +40495,8 @@
           <t>5154418386</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:44:39</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44422.48934027777</v>
       </c>
       <c r="I560" t="n">
         <v>15</v>
@@ -41658,10 +40556,8 @@
           <t>5154420874</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:44:27</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44422.48920138889</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41733,10 +40629,8 @@
           <t>5154417350</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:44:17</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44422.48908564815</v>
       </c>
       <c r="I562" t="n">
         <v>2</v>
@@ -41805,10 +40699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:44:02</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44422.48891203704</v>
       </c>
       <c r="I563" t="n">
         <v>0</v>
@@ -41880,10 +40772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:43:37</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44422.48862268519</v>
       </c>
       <c r="I564" t="n">
         <v>2</v>
@@ -41959,10 +40849,8 @@
           <t>5154389704</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:43:30</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44422.48854166667</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -42039,10 +40927,8 @@
           <t>5154415005</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:43:29</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44422.4885300926</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -42110,10 +40996,8 @@
           <t>5154369675</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:43:26</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44422.48849537037</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -42185,10 +41069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:43:21</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44422.4884375</v>
       </c>
       <c r="I568" t="n">
         <v>10</v>
@@ -42264,10 +41146,8 @@
           <t>5154335114</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:42:58</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44422.4881712963</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -42335,10 +41215,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:42:54</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44422.488125</v>
       </c>
       <c r="I570" t="n">
         <v>46</v>
@@ -42410,10 +41288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:42:50</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44422.4880787037</v>
       </c>
       <c r="I571" t="n">
         <v>61</v>
@@ -42489,10 +41365,8 @@
           <t>5154389943</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:42:33</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44422.48788194444</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42556,10 +41430,8 @@
           <t>5154396617</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:42:28</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44422.48782407407</v>
       </c>
       <c r="I573" t="n">
         <v>1</v>
@@ -42623,10 +41495,8 @@
           <t>5154349513</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:42:26</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44422.48780092593</v>
       </c>
       <c r="I574" t="n">
         <v>3</v>
@@ -42698,10 +41568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:42:06</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44422.48756944444</v>
       </c>
       <c r="I575" t="n">
         <v>1</v>
@@ -42778,10 +41646,8 @@
           <t>5154396617</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:42:04</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44422.4875462963</v>
       </c>
       <c r="I576" t="n">
         <v>9</v>
@@ -42845,10 +41711,8 @@
           <t>5154396401</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:42:00</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44422.4875</v>
       </c>
       <c r="I577" t="n">
         <v>1</v>
@@ -42924,10 +41788,8 @@
           <t>5154369675</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:41:57</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44422.48746527778</v>
       </c>
       <c r="I578" t="n">
         <v>2</v>
@@ -42995,10 +41857,8 @@
           <t>5154393841</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:41:45</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44422.48732638889</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -43070,10 +41930,8 @@
           <t>5154389943</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:41:42</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44422.48729166666</v>
       </c>
       <c r="I580" t="n">
         <v>12</v>
@@ -43145,10 +42003,8 @@
           <t>5154389704</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:41:37</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44422.4872337963</v>
       </c>
       <c r="I581" t="n">
         <v>0</v>
@@ -43216,10 +42072,8 @@
           <t>5154384180</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:41:16</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44422.48699074074</v>
       </c>
       <c r="I582" t="n">
         <v>13</v>
@@ -43295,10 +42149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:41:04</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44422.48685185185</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43358,10 +42210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:40:50</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44422.48668981482</v>
       </c>
       <c r="I584" t="n">
         <v>1</v>
@@ -43430,10 +42280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:40:49</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44422.48667824074</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43497,10 +42345,8 @@
           <t>5154335114</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:40:48</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44422.48666666666</v>
       </c>
       <c r="I586" t="n">
         <v>5</v>
@@ -43576,10 +42422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:40:37</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44422.48653935185</v>
       </c>
       <c r="I587" t="n">
         <v>211</v>
@@ -43651,10 +42495,8 @@
           <t>5154369675</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:40:35</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44422.4865162037</v>
       </c>
       <c r="I588" t="n">
         <v>15</v>
@@ -43730,10 +42572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:40:34</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44422.48650462963</v>
       </c>
       <c r="I589" t="n">
         <v>1</v>
@@ -43805,10 +42645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:40:34</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44422.48650462963</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43880,10 +42718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:40:05</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44422.48616898148</v>
       </c>
       <c r="I591" t="n">
         <v>3</v>
@@ -43955,10 +42791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:40:02</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44422.48613425926</v>
       </c>
       <c r="I592" t="n">
         <v>1</v>
@@ -44026,10 +42860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:40:00</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44422.48611111111</v>
       </c>
       <c r="I593" t="n">
         <v>12</v>
@@ -44101,10 +42933,8 @@
           <t>5154369675</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:39:47</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44422.48596064815</v>
       </c>
       <c r="I594" t="n">
         <v>80</v>
@@ -44180,10 +43010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:39:42</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44422.48590277778</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
@@ -44262,10 +43090,8 @@
           <t>5154335114</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:39:34</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44422.48581018519</v>
       </c>
       <c r="I596" t="n">
         <v>0</v>
@@ -44337,10 +43163,8 @@
           <t>5154373779</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:39:24</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44422.48569444445</v>
       </c>
       <c r="I597" t="n">
         <v>7</v>
@@ -44404,10 +43228,8 @@
           <t>5154377715</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:39:20</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44422.48564814815</v>
       </c>
       <c r="I598" t="n">
         <v>9</v>
@@ -44483,10 +43305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:38:59</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44422.48540509259</v>
       </c>
       <c r="I599" t="n">
         <v>6</v>
@@ -44554,10 +43374,8 @@
           <t>5154352136</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:38:46</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44422.48525462963</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44633,10 +43451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:38:36</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44422.48513888889</v>
       </c>
       <c r="I601" t="n">
         <v>1</v>
@@ -44712,10 +43528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:38:22</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44422.48497685185</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44791,10 +43605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:38:19</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44422.48494212963</v>
       </c>
       <c r="I603" t="n">
         <v>2</v>
@@ -44870,10 +43682,8 @@
           <t>5154370627</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:38:17</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44422.48491898148</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44949,10 +43759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:38:15</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44422.48489583333</v>
       </c>
       <c r="I605" t="n">
         <v>25</v>
@@ -45028,10 +43836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:38:12</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44422.48486111111</v>
       </c>
       <c r="I606" t="n">
         <v>1</v>
@@ -45099,10 +43905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:37:45</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44422.48454861111</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -45166,10 +43970,8 @@
           <t>5154364063</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:37:45</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44422.48454861111</v>
       </c>
       <c r="I608" t="n">
         <v>6</v>
@@ -45241,10 +44043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:37:42</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44422.48451388889</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -45320,10 +44120,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:37:39</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44422.48447916667</v>
       </c>
       <c r="I610" t="n">
         <v>10</v>
@@ -45395,10 +44193,8 @@
           <t>5154335114</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:37:31</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44422.48438657408</v>
       </c>
       <c r="I611" t="n">
         <v>58</v>
@@ -45474,10 +44270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:37:08</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44422.48412037037</v>
       </c>
       <c r="I612" t="n">
         <v>1</v>
@@ -45541,10 +44335,8 @@
           <t>5154352136</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:37:06</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44422.48409722222</v>
       </c>
       <c r="I613" t="n">
         <v>3</v>
@@ -45612,10 +44404,8 @@
           <t>5154355545</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:36:26</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44422.48363425926</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45683,10 +44473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:36:25</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44422.48362268518</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45762,10 +44550,8 @@
           <t>5154355472</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:36:24</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44422.48361111111</v>
       </c>
       <c r="I616" t="n">
         <v>13</v>
@@ -45841,10 +44627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:36:23</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44422.48359953704</v>
       </c>
       <c r="I617" t="n">
         <v>1</v>
@@ -45908,10 +44692,8 @@
           <t>5154355239</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:36:20</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44422.48356481481</v>
       </c>
       <c r="I618" t="n">
         <v>12</v>
@@ -45975,10 +44757,8 @@
           <t>5154349513</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:36:10</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44422.48344907408</v>
       </c>
       <c r="I619" t="n">
         <v>14</v>
@@ -46042,10 +44822,8 @@
           <t>5154345610</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:36:06</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44422.48340277778</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -46113,10 +44891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:35:57</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44422.48329861111</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -46197,10 +44973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:35:55</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44422.48327546296</v>
       </c>
       <c r="I622" t="n">
         <v>622</v>
@@ -46272,10 +45046,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:35:54</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44422.48326388889</v>
       </c>
       <c r="I623" t="n">
         <v>73</v>
@@ -46339,10 +45111,8 @@
           <t>5154348720</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:35:54</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44422.48326388889</v>
       </c>
       <c r="I624" t="n">
         <v>2</v>
@@ -46418,10 +45188,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:35:52</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44422.48324074074</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46489,10 +45257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:35:46</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44422.4831712963</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46556,10 +45322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:35:37</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44422.48306712963</v>
       </c>
       <c r="I627" t="n">
         <v>4</v>
@@ -46623,10 +45387,8 @@
           <t>5154343254</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:35:35</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44422.48304398148</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46702,10 +45464,8 @@
           <t>5154338170</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:35:31</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44422.48299768518</v>
       </c>
       <c r="I629" t="n">
         <v>8</v>
@@ -46773,10 +45533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:35:20</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44422.48287037037</v>
       </c>
       <c r="I630" t="n">
         <v>99</v>
@@ -46852,10 +45610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:35:15</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44422.4828125</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46927,10 +45683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:34:52</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44422.4825462963</v>
       </c>
       <c r="I632" t="n">
         <v>0</v>
@@ -46998,10 +45752,8 @@
           <t>5154345610</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:34:50</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44422.48252314814</v>
       </c>
       <c r="I633" t="n">
         <v>9</v>
@@ -47077,10 +45829,8 @@
           <t>5154345566</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:34:49</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44422.48251157408</v>
       </c>
       <c r="I634" t="n">
         <v>0</v>
@@ -47156,10 +45906,8 @@
           <t>5154335114</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:34:18</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44422.48215277777</v>
       </c>
       <c r="I635" t="n">
         <v>108</v>
@@ -47223,10 +45971,8 @@
           <t>5154333863</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:34:14</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44422.48210648148</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -47298,10 +46044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:34:12</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44422.48208333334</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -47369,10 +46113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:34:11</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44422.48207175926</v>
       </c>
       <c r="I638" t="n">
         <v>0</v>
@@ -47436,10 +46178,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:33:47</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44422.48179398148</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47512,10 +46252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:33:46</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44422.48178240741</v>
       </c>
       <c r="I640" t="n">
         <v>13</v>
@@ -47591,10 +46329,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:33:42</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44422.48173611111</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
@@ -47670,10 +46406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:33:21</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44422.48149305556</v>
       </c>
       <c r="I642" t="n">
         <v>105</v>
@@ -47741,10 +46475,8 @@
           <t>5154322653</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:33:19</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44422.4814699074</v>
       </c>
       <c r="I643" t="n">
         <v>13</v>
@@ -47812,10 +46544,8 @@
           <t>5154322156</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:33:07</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44422.48133101852</v>
       </c>
       <c r="I644" t="n">
         <v>7</v>
@@ -47883,10 +46613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:32:36</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44422.48097222222</v>
       </c>
       <c r="I645" t="n">
         <v>4</v>
@@ -47954,10 +46682,8 @@
           <t>5154320774</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:32:33</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44422.4809375</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -48033,10 +46759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:32:32</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44422.48092592593</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -48108,10 +46832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:32:29</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44422.4808912037</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
@@ -48188,10 +46910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:32:25</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44422.4808449074</v>
       </c>
       <c r="I649" t="n">
         <v>10</v>
@@ -48267,10 +46987,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:32:17</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44422.48075231481</v>
       </c>
       <c r="I650" t="n">
         <v>0</v>
@@ -48346,10 +47064,8 @@
           <t>5154314250</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:32:16</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44422.48074074074</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -48421,10 +47137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:32:15</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44422.48072916667</v>
       </c>
       <c r="I652" t="n">
         <v>1446</v>
@@ -48488,10 +47202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:32:09</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44422.48065972222</v>
       </c>
       <c r="I653" t="n">
         <v>9</v>
@@ -48568,10 +47280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:32:01</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44422.48056712963</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -48647,10 +47357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:52</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44422.48046296297</v>
       </c>
       <c r="I655" t="n">
         <v>8</v>
@@ -48726,10 +47434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:45</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44422.48038194444</v>
       </c>
       <c r="I656" t="n">
         <v>1</v>
@@ -48793,10 +47499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:43</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44422.4803587963</v>
       </c>
       <c r="I657" t="n">
         <v>1</v>
@@ -48873,10 +47577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:36</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44422.48027777778</v>
       </c>
       <c r="I658" t="n">
         <v>844</v>
@@ -48940,10 +47642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:35</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44422.4802662037</v>
       </c>
       <c r="I659" t="n">
         <v>1</v>
@@ -49015,10 +47715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:35</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44422.4802662037</v>
       </c>
       <c r="I660" t="n">
         <v>4</v>
@@ -49094,10 +47792,8 @@
           <t>5154316083</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:29</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44422.48019675926</v>
       </c>
       <c r="I661" t="n">
         <v>2</v>
@@ -49173,10 +47869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:17</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44422.48005787037</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -49248,10 +47942,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:14</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44422.48002314815</v>
       </c>
       <c r="I663" t="n">
         <v>19</v>
@@ -49323,10 +48015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:14</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44422.48002314815</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
@@ -49394,10 +48084,8 @@
           <t>5154315195</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:11</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44422.47998842593</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -49457,10 +48145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:08</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44422.4799537037</v>
       </c>
       <c r="I666" t="n">
         <v>2</v>
@@ -49536,10 +48222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:07</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44422.47994212963</v>
       </c>
       <c r="I667" t="n">
         <v>0</v>
@@ -49599,10 +48283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:02</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44422.47988425926</v>
       </c>
       <c r="I668" t="n">
         <v>2</v>
@@ -49678,10 +48360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:01</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44422.47987268519</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49741,10 +48421,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:31:00</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44422.47986111111</v>
       </c>
       <c r="I670" t="n">
         <v>0</v>
@@ -49812,10 +48490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:30:58</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44422.47983796296</v>
       </c>
       <c r="I671" t="n">
         <v>1</v>
@@ -49883,10 +48559,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:30:51</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44422.47975694444</v>
       </c>
       <c r="I672" t="n">
         <v>14</v>
@@ -49962,10 +48636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:30:47</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44422.47971064815</v>
       </c>
       <c r="I673" t="n">
         <v>1</v>
@@ -50029,10 +48701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:30:40</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44422.47962962963</v>
       </c>
       <c r="I674" t="n">
         <v>258</v>
@@ -50100,10 +48770,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:30:33</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44422.47954861111</v>
       </c>
       <c r="I675" t="n">
         <v>0</v>
@@ -50163,10 +48831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:30:21</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44422.47940972223</v>
       </c>
       <c r="I676" t="n">
         <v>24</v>
@@ -50234,10 +48900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-08-14 11:30:20</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44422.47939814815</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
